--- a/Effective_Date_Selector.xlsx
+++ b/Effective_Date_Selector.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="123820"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asanthanam\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="2838"/>
   </bookViews>
   <sheets>
     <sheet name="OFF_EFFECTIVE_DATE_CONFIGURATOR" sheetId="1" r:id="rId1"/>
@@ -13,13 +18,12 @@
     <sheet name="ON_OPEN_ENROLLMENT_SUBPERIODS" sheetId="4" r:id="rId4"/>
     <sheet name="OFF_OPEN_ENROLLMENT_SUBPERIODS" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="51">
   <si>
     <t>PERIOD_START_DATE</t>
   </si>
@@ -177,8 +181,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -206,35 +221,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0"/>
-    <cellStyle name="Percent" xfId="1"/>
+    <cellStyle name="Comma" xfId="4"/>
+    <cellStyle name="Comma[0]" xfId="5"/>
     <cellStyle name="Currency" xfId="2"/>
     <cellStyle name="Currency[0]" xfId="3"/>
-    <cellStyle name="Comma" xfId="4"/>
-    <cellStyle name="Comma[0]" xfId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -304,11 +320,19 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -350,11 +374,11 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="?? ??"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
@@ -382,13 +406,31 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="?? ??"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
@@ -416,6 +458,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -450,16 +510,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="130000"/>
+                <a:shade val="40000"/>
+                <a:satMod val="155000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="65000">
+              <a:schemeClr val="phClr">
+                <a:shade val="85000"/>
+                <a:satMod val="155000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="155000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -467,7 +531,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -482,7 +546,7 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="34925" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -492,16 +556,16 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="64000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="39000" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -510,22 +574,22 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="39000" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
           <a:scene3d>
-            <a:camera prst="orthographicFront">
+            <a:camera prst="orthographicFront" fov="0">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
             <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:lightRig>
           </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+          <a:sp3d prstMaterial="matte">
+            <a:bevelT h="22225"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -537,27 +601,24 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="50000"/>
+                <a:satMod val="155000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="75000"/>
+                <a:satMod val="155000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -581,61 +642,22 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" ht="12.75">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -652,7 +674,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" ht="12.75">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -669,7 +691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="12.75">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -686,9 +708,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" ht="12.75">
-      <c r="A4" t="s">
-        <v>11</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
@@ -704,23 +726,20 @@
       </c>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
-  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" ht="12.75">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -737,7 +756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" ht="12.75">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -754,7 +773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="12.75">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -771,7 +790,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" ht="12.75">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -789,23 +808,20 @@
       </c>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
-  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" ht="12.75">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -825,7 +841,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" ht="12.75">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -845,7 +861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="12.75">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -865,7 +881,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" ht="12.75">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -885,7 +901,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" ht="12.75">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -905,7 +921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" ht="12.75">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -925,7 +941,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" ht="12.75">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -945,7 +961,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" ht="12.75">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -965,7 +981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" ht="12.75">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -986,23 +1002,20 @@
       </c>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
-  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" ht="12.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1026,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" ht="12.75">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1024,7 +1037,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" ht="12.75">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1035,7 +1048,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" ht="12.75">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1046,7 +1059,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" ht="12.75">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1058,23 +1071,20 @@
       </c>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
-  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" ht="12.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" ht="12.75">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1096,7 +1106,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" ht="12.75">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1107,7 +1117,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" ht="12.75">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1119,8 +1129,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
-  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Effective_Date_Selector.xlsx
+++ b/Effective_Date_Selector.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asanthanam\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syagnaraman\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="2838"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9024"/>
   </bookViews>
   <sheets>
     <sheet name="OFF_EFFECTIVE_DATE_CONFIGURATOR" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="52">
   <si>
     <t>PERIOD_START_DATE</t>
   </si>
@@ -176,12 +176,15 @@
   </si>
   <si>
     <t>NoneOfTheAbove</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
@@ -237,8 +240,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -407,23 +413,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -459,23 +448,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -652,12 +624,12 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -674,7 +646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -691,7 +663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -708,9 +680,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>30</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
@@ -737,9 +709,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -756,7 +728,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -773,7 +745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -790,7 +762,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -819,9 +791,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -841,7 +813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -861,7 +833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -881,7 +853,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -901,7 +873,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -921,7 +893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -941,7 +913,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -961,7 +933,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -981,7 +953,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1013,9 +985,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +998,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1037,7 +1009,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1048,7 +1020,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1059,7 +1031,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1082,9 +1054,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1095,7 +1067,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1106,7 +1078,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1117,7 +1089,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
